--- a/medicine/Enfance/The_Edge_Chronicles_Maps/The_Edge_Chronicles_Maps.xlsx
+++ b/medicine/Enfance/The_Edge_Chronicles_Maps/The_Edge_Chronicles_Maps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Edge chronicles Maps est un livre de la saga Chroniques du bout du monde de Paul Stewart et Chris Riddell. Il ne fait partie d'aucun des trois cycles composant la série. Ce livre n'est (peut être) pas paru en France ou seulement dans sa version originale. Il semble qu'il soit sorti en français sous le nom "Chroniques du bout du monde Carte et Livret" (voir le site "priceminister") mais n'est pas encore en vente.
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Site officiel
  Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse   Portail de la fantasy et du fantastique                   </t>
